--- a/Resources/facebook_market_capitalization.xlsx
+++ b/Resources/facebook_market_capitalization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a743a8b7b98e92d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\03_Data_Engineering_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BBC1647-E656-44C3-8830-EDFBCB492447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AD316-3410-49BE-8F9C-6FEE57E5843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="7056" windowWidth="17280" windowHeight="9072" xr2:uid="{DA9FDE9A-FC79-4F21-B474-459ECCFA59B7}"/>
+    <workbookView xWindow="144" yWindow="7236" windowWidth="17280" windowHeight="9072" xr2:uid="{DA9FDE9A-FC79-4F21-B474-459ECCFA59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,10 +453,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/Resources/facebook_market_capitalization.xlsx
+++ b/Resources/facebook_market_capitalization.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\03_Data_Engineering_Project\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Documents\Bootcamp\Repos\Projects\03_Data_Engineering_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AD316-3410-49BE-8F9C-6FEE57E5843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF312CF-A1EF-4EE0-AF61-20C72D2061AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="7236" windowWidth="17280" windowHeight="9072" xr2:uid="{DA9FDE9A-FC79-4F21-B474-459ECCFA59B7}"/>
+    <workbookView xWindow="29130" yWindow="750" windowWidth="28110" windowHeight="14130" xr2:uid="{DA9FDE9A-FC79-4F21-B474-459ECCFA59B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,9 +39,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Market cap</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -78,6 +73,9 @@
   </si>
   <si>
     <t>$63.14 B</t>
+  </si>
+  <si>
+    <t>MarketCap</t>
   </si>
 </sst>
 </file>
@@ -453,141 +451,141 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>-0.41699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>0.2026</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>0.3291</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>0.56459999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>-0.27039999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>0.54630000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>0.36849999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>0.55710000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>1.2043999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
